--- a/excel/test_add_new_action.xlsx
+++ b/excel/test_add_new_action.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
   <si>
     <t>用例名称</t>
   </si>
@@ -57,13 +57,249 @@
     <t>预期结果</t>
   </si>
   <si>
-    <t>实际结果</t>
+    <t>接口响应</t>
+  </si>
+  <si>
+    <t>测试结果</t>
+  </si>
+  <si>
+    <t>新增洽谈项目1</t>
   </si>
   <si>
     <t>post</t>
   </si>
   <si>
     <t>http://kbs.matrixdesign.cn/api/authapi/bsProInfo/save</t>
+  </si>
+  <si>
+    <t>{
+    "proName": "20220926001测试新增洽谈项目2",
+    "proArea": "100001",
+    "proSource": "1302936105011777538",
+    "bsType": "1280327578854494209",
+    "bidAmount": 0,
+    "proType": "1284015946851291137",
+    "customerId": "1331086994964615170",
+    "partnerCompany": "",
+    "bsDirectorId": "",
+    "bsDirector": "",
+    "bsManager": "",
+    "bsManagerId": "",
+    "bsProgress": "",
+    "designDirectorName": "",
+    "designDirectorId": "",
+    "winRate": "",
+    "bidCriteria": "",
+    "bidder": "",
+    "sybCategory": "softType",
+    "technicalApplyStatus": 0,
+    "createBy": "何强明",
+    "createDate": "2022-09-26 10:21:05",
+    "proRegister": "15933960308972735",
+    "proRegisterTime": "2022-09-26 10:21:05",
+    "signCompany": "厦门亿联软件有限公司",
+    "proStage": "1280322514521821185",
+    "bsDkpInfo": {
+        "newPlatRate": "",
+        "newAreaRate": "",
+        "newEstateRate": "",
+        "newAreaEstate": "",
+        "reviewRate": "",
+        "basicDkp": "",
+        "totalDkp": ""
+    },
+    "proStatus": "洽谈项目"
+}</t>
+  </si>
+  <si>
+    <t>新增软装投标项目1</t>
+  </si>
+  <si>
+    <t>{
+    "bsType": "1280327614988423169",
+    "proCode": "",
+    "proName": "20220926测试新增软装投标项目2",
+    "proType": "1284015946851291137",
+    "customerId": "1331078037374111745",
+    "customerCode": "",
+    "sapNumber": "",
+    "signCompany": "上海奥慧妍健康科技有限公司",
+    "partnerCompany": "",
+    "bidAmount": 0,
+    "proProvince": "120000",
+    "proCity": "",
+    "sybCategory": "softType",
+    "proAddress": "测试1",
+    "hardDirector": "",
+    "hardDirectorId": "",
+    "softTeam": "",
+    "softTeamId": "",
+    "bsDirectorId": "15933960308972735",
+    "bsDirector": "何强明",
+    "bsManager": "郑鸿晖",
+    "bsManagerId": "16073917709738137",
+    "bsProgress": "1458618619943587842",
+    "designDirectorName": "",
+    "designDirectorId": "",
+    "principalName": "",
+    "principalId": "",
+    "winRate": "",
+    "planStartDate": "",
+    "planFinishDate": "2022-09-26 10:39:22",
+    "proStartDate": "2022-09-27 00:00:00",
+    "estimateAmount": "",
+    "bidCriteria": "",
+    "bidder": "",
+    "designDirection": "测试11",
+    "proSource": "1302936105011777538",
+    "isSingleList": "yes",
+    "isPleasedHard": "yes",
+    "softAcceptRate": "",
+    "preference": "",
+    "isArtNeeds": "",
+    "isMineHard": "1326127662460178433",
+    "hardCompany": "矩阵纵横设计股份有限公司",
+    "loseBideReason": "",
+    "matrixArea": "华北",
+    "adminArea": "华北地区",
+    "technicalApplyReason": "",
+    "companyEntity": "2",
+    "bsProDetailsList": "",
+    "isSupAgreement": "no",
+    "mainBsId": "",
+    "mainBsName": "",
+    "createBy": "何强明",
+    "createDate": "2022-09-26 10:38:37",
+    "proRegister": "15933960308972735",
+    "proRegisterTime": "2022-09-26 10:38:37",
+    "bsPaymentList": "null",
+    "bsProFollowRecordList": "",
+    "bsProQuotationRecordList": "",
+    "bsProTender": {
+        "commercialRate": 50,
+        "competeName": "",
+        "competeProject": "",
+        "drawCloseTime": "",
+        "isBided": "",
+        "marketPostion": "",
+        "openTime": "",
+        "reportTime": "",
+        "returnTime": "2022-09-26 10:39:33",
+        "skillRate": 50,
+        "id": "",
+        "otherDesign": "",
+        "wasCooperation": "yes",
+        "cooperationRecord": "",
+        "tenderStartTime": "2022-09-26 10:39:32",
+        "decision": "",
+        "lowBiding": "",
+        "reportType": "",
+        "isTech": "1395277357299929090",
+        "bidNotice": ""
+    },
+    "bsDkpInfo": {
+        "newPlatRate": "",
+        "newAreaRate": "",
+        "newEstateRate": "",
+        "newAreaEstate": "",
+        "reviewRate": "",
+        "basicDkp": "",
+        "totalDkp": ""
+    },
+    "proStatus": "商务投标",
+    "proStage": "1284035278016745473"
+}</t>
+  </si>
+  <si>
+    <t>新增硬装投标项目1</t>
+  </si>
+  <si>
+    <t>{
+    "bsType": "1280327614988423169",
+    "proCode": "",
+    "proName": "20220926测试新增硬装投标项目2",
+    "proType": "1284015946851291137",
+    "customerId": "1331095723323822081",
+    "partnerCompany": "",
+    "bidAmount": 0,
+    "proProvince": "120000",
+    "proCity": "120103",
+    "proAddress": "测试1",
+    "sybCategory": "hardType",
+    "hardDirector": "",
+    "hardDirectorId": "",
+    "hardTeamId": "",
+    "hardTeam": "",
+    "bsDirectorId": "15933960308972735",
+    "bsDirector": "何强明",
+    "bsManager": "郑鸿晖",
+    "bsManagerId": "16073917709738137",
+    "bsProgress": "1458618619943587842",
+    "designDirectorName": "",
+    "designDirectorId": "",
+    "principalName": "",
+    "principalId": "",
+    "winRate": "",
+    "planStartDate": "",
+    "planFinishDate": "2022-09-26 10:43:29",
+    "proStartDate": "2022-09-26 10:43:31",
+    "designDirection": "测试1",
+    "proSource": "1302936105011777538",
+    "matrixArea": "华北",
+    "adminArea": "华北地区",
+    "technicalApplyReason": "",
+    "companyEntity": "3",
+    "bsProDetailsList": "",
+    "isSupAgreement": "no",
+    "mainBsId": "",
+    "mainBsName": "",
+    "createBy": "何强明",
+    "createDate": "2022-09-26 10:42:47",
+    "proRegister": "15933960308972735",
+    "proRegisterTime": "2022-09-26 10:42:47",
+    "isMineHard": "1326127662460178433",
+    "signCompany": "深圳佳兆业地产有限公司",
+    "bsPaymentList": "",
+    "bsProFollowRecordList": "",
+    "bsProQuotationRecordList": "",
+    "bsProTender": {
+        "commercialRate": "50",
+        "competeName": "",
+        "competeProject": "",
+        "drawCloseTime": "",
+        "isBided": "",
+        "marketPostion": "",
+        "openTime": "",
+        "reportTime": "",
+        "returnTime": "2022-09-26 10:43:47",
+        "skillRate": "50",
+        "otherDesign": "",
+        "id": "",
+        "wasCooperation": "yes",
+        "cooperationRecord": "",
+        "tenderStartTime": "2022-09-26 10:43:43",
+        "decision": "",
+        "lowBiding": "",
+        "reportType": "",
+        "loseBideReason": "",
+        "isTech": "1395277357299929090",
+        "bidNotice": ""
+    },
+    "bsDkpInfo": {
+        "newPlatRate": "",
+        "newAreaRate": "",
+        "newEstateRate": "",
+        "newAreaEstate": "",
+        "reviewRate": "",
+        "basicDkp": "",
+        "totalDkp": ""
+    },
+    "proStatus": "商务投标",
+    "proStage": "1284035196542390273"
+}</t>
+  </si>
+  <si>
+    <t>新增执行项目1</t>
   </si>
   <si>
     <t>{
@@ -74,7 +310,7 @@
                 "index": 0
             }
         ],
-        "proName": "20220922测试执行项目1",
+        "proName": "20220926测试执行项目1",
         "bsType": "1280327578854494209",
         "proType": "1284015946851291137",
         "customerId": "1331086994964615170",
@@ -127,6 +363,425 @@
             }
         ]
     }</t>
+  </si>
+  <si>
+    <t>新增执行项目2</t>
+  </si>
+  <si>
+    <t>{
+        "bidAmount": 0,
+        "bsPaymentList": [
+            {
+                "entityStatus": 0,
+                "index": 0
+            }
+        ],
+        "proName": "20220926测试执行项目2",
+        "bsType": "1280327578854494209",
+        "proType": "1284015946851291137",
+        "customerId": "1331086994964615170",
+        "signCompany": "厦门亿联软件有限公司",
+        "bsDirectorId": "15531517835544798",
+        "bsDirector": "何婷婷",
+        "bsManager": "伍月",
+        "bsManagerId": "15583162931904359",
+        "proSource": "1302935975869157378",
+        "sybCategory": "softType",
+        "auditStatus": 50,
+        "proStage": "1284035504538521602",
+        "sapNumber": "CS11434421",
+        "proProvince": "210000",
+        "proCity": "210400",
+        "matrixArea": "东北",
+        "adminArea": "东北地区",
+        "proAddress": "测试1",
+        "companyEntity": "2",
+        "bsProDetailsList": [
+            {
+                "entityStatus": 1,
+                "index": 0
+            }
+        ],
+        "isSupAgreement": "no",
+        "isEstate": 1,
+        "isWarrantyPeriod": "no",
+        "createBy": "伍月",
+        "createDate": "2022-09-22 11:13:02",
+        "proRegister": "15583162931904359",
+        "proRegisterTime": "2022-08-21 11:13:03",
+        "isMineHard": "1326127662460178433",
+        "hardCompany": "矩阵纵横设计股份有限公司",
+        "designDirection": "1测试1",
+        "preference": "测1试",
+        "isArtNeeds": "暂无1",
+        "isSingleList": "yes",
+        "isPleasedHard": "yes",
+        "planFinishDate": "2022-08-21 11:22:53",
+        "proStartDate": "2022-08-21 11:22:58",
+        "expectContractSignTime": "2022-08-31 11:23:01",
+        "bsProgress": "1326161122331594754",
+        "proStatus": "直委项目",
+        "bsProFollowRecordList": [
+            {
+                "entityStatus": 1,
+                "hasError": "false",
+                "index": 0
+            }
+        ]
+    }</t>
+  </si>
+  <si>
+    <t>新增执行项目3</t>
+  </si>
+  <si>
+    <t>{
+        "bidAmount": 0,
+        "bsPaymentList": [
+            {
+                "entityStatus": 0,
+                "index": 0
+            }
+        ],
+        "proName": "20220926测试执行项目3",
+        "bsType": "1280327578854494209",
+        "proType": "1284015946851291137",
+        "customerId": "1331086994964615170",
+        "signCompany": "厦门亿联软件有限公司",
+        "bsDirectorId": "15531517835544798",
+        "bsDirector": "何婷婷",
+        "bsManager": "伍月",
+        "bsManagerId": "15583162931904359",
+        "proSource": "1302935975869157378",
+        "sybCategory": "softType",
+        "auditStatus": 50,
+        "proStage": "1284035504538521602",
+        "sapNumber": "CS11434421",
+        "proProvince": "210000",
+        "proCity": "210400",
+        "matrixArea": "东北",
+        "adminArea": "东北地区",
+        "proAddress": "测试1",
+        "companyEntity": "2",
+        "bsProDetailsList": [
+            {
+                "entityStatus": 1,
+                "index": 0
+            }
+        ],
+        "isSupAgreement": "no",
+        "isEstate": 1,
+        "isWarrantyPeriod": "no",
+        "createBy": "伍月",
+        "createDate": "2022-09-22 11:13:02",
+        "proRegister": "15583162931904359",
+        "proRegisterTime": "2022-08-21 11:13:03",
+        "isMineHard": "1326127662460178433",
+        "hardCompany": "矩阵纵横设计股份有限公司",
+        "designDirection": "1测试1",
+        "preference": "测1试",
+        "isArtNeeds": "暂无1",
+        "isSingleList": "yes",
+        "isPleasedHard": "yes",
+        "planFinishDate": "2022-08-21 11:22:53",
+        "proStartDate": "2022-08-21 11:22:58",
+        "expectContractSignTime": "2022-08-31 11:23:01",
+        "bsProgress": "1326161122331594754",
+        "proStatus": "直委项目",
+        "bsProFollowRecordList": [
+            {
+                "entityStatus": 1,
+                "hasError": "false",
+                "index": 0
+            }
+        ]
+    }</t>
+  </si>
+  <si>
+    <t>新增执行项目4</t>
+  </si>
+  <si>
+    <t>{
+        "bidAmount": 0,
+        "bsPaymentList": [
+            {
+                "entityStatus": 0,
+                "index": 0
+            }
+        ],
+        "proName": "20220926测试执行项目4",
+        "bsType": "1280327578854494209",
+        "proType": "1284015946851291137",
+        "customerId": "1331086994964615170",
+        "signCompany": "厦门亿联软件有限公司",
+        "bsDirectorId": "15531517835544798",
+        "bsDirector": "何婷婷",
+        "bsManager": "伍月",
+        "bsManagerId": "15583162931904359",
+        "proSource": "1302935975869157378",
+        "sybCategory": "softType",
+        "auditStatus": 50,
+        "proStage": "1284035504538521602",
+        "sapNumber": "CS11434421",
+        "proProvince": "210000",
+        "proCity": "210400",
+        "matrixArea": "东北",
+        "adminArea": "东北地区",
+        "proAddress": "测试1",
+        "companyEntity": "2",
+        "bsProDetailsList": [
+            {
+                "entityStatus": 1,
+                "index": 0
+            }
+        ],
+        "isSupAgreement": "no",
+        "isEstate": 1,
+        "isWarrantyPeriod": "no",
+        "createBy": "伍月",
+        "createDate": "2022-09-22 11:13:02",
+        "proRegister": "15583162931904359",
+        "proRegisterTime": "2022-08-21 11:13:03",
+        "isMineHard": "1326127662460178433",
+        "hardCompany": "矩阵纵横设计股份有限公司",
+        "designDirection": "1测试1",
+        "preference": "测1试",
+        "isArtNeeds": "暂无1",
+        "isSingleList": "yes",
+        "isPleasedHard": "yes",
+        "planFinishDate": "2022-08-21 11:22:53",
+        "proStartDate": "2022-08-21 11:22:58",
+        "expectContractSignTime": "2022-08-31 11:23:01",
+        "bsProgress": "1326161122331594754",
+        "proStatus": "直委项目",
+        "bsProFollowRecordList": [
+            {
+                "entityStatus": 1,
+                "hasError": "false",
+                "index": 0
+            }
+        ]
+    }</t>
+  </si>
+  <si>
+    <t>{
+    "proName": "20220926001测试新增洽谈项目1",
+    "proArea": "100001",
+    "proSource": "1302936105011777538",
+    "bsType": "1280327578854494209",
+    "bidAmount": 0,
+    "proType": "1284015946851291137",
+    "customerId": "1331086994964615170",
+    "partnerCompany": "",
+    "bsDirectorId": "",
+    "bsDirector": "",
+    "bsManager": "",
+    "bsManagerId": "",
+    "bsProgress": "",
+    "designDirectorName": "",
+    "designDirectorId": "",
+    "winRate": "",
+    "bidCriteria": "",
+    "bidder": "",
+    "sybCategory": "softType",
+    "technicalApplyStatus": 0,
+    "createBy": "何强明",
+    "createDate": "2022-09-26 10:21:05",
+    "proRegister": "15933960308972735",
+    "proRegisterTime": "2022-09-26 10:21:05",
+    "signCompany": "厦门亿联软件有限公司",
+    "proStage": "1280322514521821185",
+    "bsDkpInfo": {
+        "newPlatRate": "",
+        "newAreaRate": "",
+        "newEstateRate": "",
+        "newAreaEstate": "",
+        "reviewRate": "",
+        "basicDkp": "",
+        "totalDkp": ""
+    },
+    "proStatus": "洽谈项目"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "bsType": "1280327614988423169",
+    "proCode": "",
+    "proName": "20220926测试新增软装投标项目2",
+    "proType": "1284015946851291137",
+    "customerId": "1331078037374111745",
+    "customerCode": "",
+    "sapNumber": "",
+    "signCompany": "上海奥慧妍健康科技有限公司",
+    "partnerCompany": "",
+    "bidAmount": 0,
+    "proProvince": "120000",
+    "proCity": "",
+    "sybCategory": "softType",
+    "proAddress": "测试1",
+    "hardDirector": "",
+    "hardDirectorId": "",
+    "softTeam": "",
+    "softTeamId": "",
+    "bsDirectorId": "15933960308972735",
+    "bsDirector": "何强明",
+    "bsManager": "郑鸿晖",
+    "bsManagerId": "16073917709738137",
+    "bsProgress": "1458618619943587842",
+    "designDirectorName": "",
+    "designDirectorId": "",
+    "principalName": "",
+    "principalId": "",
+    "winRate": "",
+    "planStartDate": "",
+    "planFinishDate": "2022-09-26 10:39:22",
+    "proStartDate": "2022-09-27 00:00:00",
+    "estimateAmount": "",
+    "bidCriteria": "",
+    "bidder": "",
+    "designDirection": "测试11",
+    "proSource": "1302936105011777538",
+    "isSingleList": "yes",
+    "isPleasedHard": "yes",
+    "softAcceptRate": "",
+    "preference": "",
+    "isArtNeeds": "",
+    "isMineHard": "1326127662460178433",
+    "hardCompany": "矩阵纵横设计股份有限公司",
+    "loseBideReason": "",
+    "matrixArea": "华北",
+    "adminArea": "华北地区",
+    "technicalApplyReason": "",
+    "companyEntity": "2",
+    "bsProDetailsList": "null",
+    "isSupAgreement": "no",
+    "mainBsId": "",
+    "mainBsName": "",
+    "createBy": "何强明",
+    "createDate": "2022-09-26 10:38:37",
+    "proRegister": "15933960308972735",
+    "proRegisterTime": "2022-09-26 10:38:37",
+    "bsPaymentList": "null",
+    "bsProFollowRecordList": "null",
+    "bsProQuotationRecordList": "null",
+    "bsProTender": {
+        "commercialRate": 50,
+        "competeName": "",
+        "competeProject": "",
+        "drawCloseTime": "",
+        "isBided": "",
+        "marketPostion": "",
+        "openTime": "",
+        "reportTime": "",
+        "returnTime": "2022-09-26 10:39:33",
+        "skillRate": 50,
+        "id": "",
+        "otherDesign": "",
+        "wasCooperation": "yes",
+        "cooperationRecord": "",
+        "tenderStartTime": "2022-09-26 10:39:32",
+        "decision": "",
+        "lowBiding": "",
+        "reportType": "",
+        "isTech": "1395277357299929090",
+        "bidNotice": ""
+    },
+    "bsDkpInfo": {
+        "newPlatRate": "",
+        "newAreaRate": "",
+        "newEstateRate": "",
+        "newAreaEstate": "",
+        "reviewRate": "",
+        "basicDkp": "",
+        "totalDkp": ""
+    },
+    "proStatus": "商务投标",
+    "proStage": "1284035278016745473"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "bsType": "1280327614988423169",
+    "proCode": "",
+    "proName": "20220926测试新增硬装投标项目2",
+    "proType": "1284015946851291137",
+    "customerId": "1331095723323822081",
+    "partnerCompany": "",
+    "bidAmount": 0,
+    "proProvince": "120000",
+    "proCity": "120103",
+    "proAddress": "测试1",
+    "sybCategory": "hardType",
+    "hardDirector": "",
+    "hardDirectorId": "",
+    "hardTeamId": "",
+    "hardTeam": "",
+    "bsDirectorId": "15933960308972735",
+    "bsDirector": "何强明",
+    "bsManager": "郑鸿晖",
+    "bsManagerId": "16073917709738137",
+    "bsProgress": "1458618619943587842",
+    "designDirectorName": "",
+    "designDirectorId": "",
+    "principalName": "",
+    "principalId": "",
+    "winRate": "",
+    "planStartDate": "",
+    "planFinishDate": "2022-09-26 10:43:29",
+    "proStartDate": "2022-09-26 10:43:31",
+    "designDirection": "测试1",
+    "proSource": "1302936105011777538",
+    "matrixArea": "华北",
+    "adminArea": "华北地区",
+    "technicalApplyReason": "",
+    "companyEntity": "3",
+    "bsProDetailsList": "null",
+    "isSupAgreement": "no",
+    "mainBsId": "",
+    "mainBsName": "",
+    "createBy": "何强明",
+    "createDate": "2022-09-26 10:42:47",
+    "proRegister": "15933960308972735",
+    "proRegisterTime": "2022-09-26 10:42:47",
+    "isMineHard": "1326127662460178433",
+    "signCompany": "深圳佳兆业地产有限公司",
+    "bsPaymentList": "null",
+    "bsProFollowRecordList": "null",
+    "bsProQuotationRecordList": "null",
+    "bsProTender": {
+        "commercialRate": "50",
+        "competeName": "",
+        "competeProject": "",
+        "drawCloseTime": "",
+        "isBided": "",
+        "marketPostion": "",
+        "openTime": "",
+        "reportTime": "",
+        "returnTime": "2022-09-26 10:43:47",
+        "skillRate": "50",
+        "otherDesign": "",
+        "id": "",
+        "wasCooperation": "yes",
+        "cooperationRecord": "",
+        "tenderStartTime": "2022-09-26 10:43:43",
+        "decision": "",
+        "lowBiding": "",
+        "reportType": "",
+        "loseBideReason": "",
+        "isTech": "1395277357299929090",
+        "bidNotice": ""
+    },
+    "bsDkpInfo": {
+        "newPlatRate": "",
+        "newAreaRate": "",
+        "newEstateRate": "",
+        "newAreaEstate": "",
+        "reviewRate": "",
+        "basicDkp": "",
+        "totalDkp": ""
+    },
+    "proStatus": "商务投标",
+    "proStage": "1284035196542390273"
+}</t>
   </si>
 </sst>
 </file>
@@ -492,7 +1147,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -504,30 +1159,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -648,7 +1279,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -678,7 +1309,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0">
@@ -696,28 +1327,28 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="9">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="7">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
@@ -726,10 +1357,10 @@
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0">
@@ -787,7 +1418,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -800,10 +1431,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1157,23 +1785,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="12.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="53.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49.625" style="1" customWidth="1"/>
     <col min="6" max="8" width="9" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1185,9 +1814,10 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1199,9 +1829,10 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1213,9 +1844,10 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1240,35 +1872,83 @@
       <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="I4" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" ht="175.5" customHeight="1" spans="1:8">
+    <row r="5" ht="409.5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3">
         <v>200</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" ht="409.5" spans="1:9">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3">
+        <v>200</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" ht="409.5" spans="1:9">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3">
+        <v>200</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" display="http://kbs.matrixdesign.cn/api/authapi/bsProInfo/save" tooltip="http://kbs.matrixdesign.cn/api/authapi/bsProInfo/save"/>
+    <hyperlink ref="C6" r:id="rId1" display="http://kbs.matrixdesign.cn/api/authapi/bsProInfo/save" tooltip="http://kbs.matrixdesign.cn/api/authapi/bsProInfo/save"/>
+    <hyperlink ref="C7" r:id="rId1" display="http://kbs.matrixdesign.cn/api/authapi/bsProInfo/save" tooltip="http://kbs.matrixdesign.cn/api/authapi/bsProInfo/save"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1279,14 +1959,259 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49.625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="9" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="409.5" spans="1:9">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="3">
+        <v>200</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" ht="409" customHeight="1" spans="1:9">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="3">
+        <v>200</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" ht="409" customHeight="1" spans="1:9">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="3">
+        <v>200</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" ht="409" customHeight="1" spans="1:9">
+      <c r="A8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="3">
+        <v>200</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" ht="409.5" spans="1:9">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="3">
+        <v>200</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" ht="409.5" spans="1:9">
+      <c r="A10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="3">
+        <v>200</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" ht="409.5" spans="1:9">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="3">
+        <v>200</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B3:I3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" display="http://kbs.matrixdesign.cn/api/authapi/bsProInfo/save" tooltip="http://kbs.matrixdesign.cn/api/authapi/bsProInfo/save"/>
+    <hyperlink ref="C6" r:id="rId1" display="http://kbs.matrixdesign.cn/api/authapi/bsProInfo/save" tooltip="http://kbs.matrixdesign.cn/api/authapi/bsProInfo/save"/>
+    <hyperlink ref="C7" r:id="rId1" display="http://kbs.matrixdesign.cn/api/authapi/bsProInfo/save" tooltip="http://kbs.matrixdesign.cn/api/authapi/bsProInfo/save"/>
+    <hyperlink ref="C8" r:id="rId1" display="http://kbs.matrixdesign.cn/api/authapi/bsProInfo/save" tooltip="http://kbs.matrixdesign.cn/api/authapi/bsProInfo/save"/>
+    <hyperlink ref="C9" r:id="rId1" display="http://kbs.matrixdesign.cn/api/authapi/bsProInfo/save" tooltip="http://kbs.matrixdesign.cn/api/authapi/bsProInfo/save"/>
+    <hyperlink ref="C10" r:id="rId1" display="http://kbs.matrixdesign.cn/api/authapi/bsProInfo/save" tooltip="http://kbs.matrixdesign.cn/api/authapi/bsProInfo/save"/>
+    <hyperlink ref="C11" r:id="rId1" display="http://kbs.matrixdesign.cn/api/authapi/bsProInfo/save" tooltip="http://kbs.matrixdesign.cn/api/authapi/bsProInfo/save"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/excel/test_add_new_action.xlsx
+++ b/excel/test_add_new_action.xlsx
@@ -1121,8 +1121,8 @@
   </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="0"/>
@@ -1251,9 +1251,9 @@
           <t>post</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr">
-        <is>
-          <t>http://kbs.matrixdesign.cn/api/authapi/bsProInfo/save</t>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>/api/authapi/bsProInfo/save</t>
         </is>
       </c>
       <c r="D5" s="3" t="n"/>
@@ -1325,9 +1325,9 @@
           <t>post</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
-        <is>
-          <t>http://kbs.matrixdesign.cn/api/authapi/bsProInfo/save</t>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>/api/authapi/bsProInfo/save</t>
         </is>
       </c>
       <c r="D6" s="3" t="n"/>
@@ -1455,9 +1455,9 @@
           <t>post</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>http://kbs.matrixdesign.cn/api/authapi/bsProInfo/save</t>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>/api/authapi/bsProInfo/save</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
@@ -1570,9 +1570,8 @@
     <mergeCell ref="B3:I3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C5" tooltip="http://kbs.matrixdesign.cn/api/authapi/bsProInfo/save" display="http://kbs.matrixdesign.cn/api/authapi/bsProInfo/save" r:id="rId1"/>
-    <hyperlink ref="C6" tooltip="http://kbs.matrixdesign.cn/api/authapi/bsProInfo/save" display="http://kbs.matrixdesign.cn/api/authapi/bsProInfo/save" r:id="rId2"/>
-    <hyperlink ref="C7" tooltip="http://kbs.matrixdesign.cn/api/authapi/bsProInfo/save" display="http://kbs.matrixdesign.cn/api/authapi/bsProInfo/save" r:id="rId3"/>
+    <hyperlink ref="C6" tooltip="http://kbs.matrixdesign.cn/api/authapi/bsProInfo/save" display="/api/authapi/bsProInfo/save" r:id="rId1"/>
+    <hyperlink ref="C7" tooltip="http://kbs.matrixdesign.cn/api/authapi/bsProInfo/save" display="/api/authapi/bsProInfo/save" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
